--- a/CombinedData/MelanomaIL2_CellTypes_wMacroAnnotations.xlsx
+++ b/CombinedData/MelanomaIL2_CellTypes_wMacroAnnotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HaloData\Melanoma_IL2__Final\CombinedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5120084E-67E4-4FF4-BE60-A30CD43C1AE0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E752B712-8B60-4111-A9DE-0C603D458FDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Complex" sheetId="2" r:id="rId2"/>
     <sheet name="Other" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="115">
   <si>
     <t>Marker_combination</t>
   </si>
@@ -149,9 +149,6 @@
     <t>S100B</t>
   </si>
   <si>
-    <t>Adipocyte or dendritic cell (Langerhans)</t>
-  </si>
-  <si>
     <t>CD56,S100B</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>Tconv8</t>
   </si>
   <si>
-    <t>CD3-,CD4-,CD8-,FOXP3-,CD20-,CD56-,CD14-,CD163-,CD68-,SOX10-</t>
-  </si>
-  <si>
     <t>CD8-,FOXP3-,CD20-,CD56-,SOX10-</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>CD4-,CD20-,CD56-,SOX10-</t>
   </si>
   <si>
-    <t>CD3-,CD8-,FOXP3-,CD56-,SOX10-</t>
-  </si>
-  <si>
     <t>CD4-,CD8-,FOXP3-,CD20-,SOX10-</t>
   </si>
   <si>
@@ -305,9 +296,6 @@
     <t>CD4-,CD20-,CD56-,SOX10-,CD14-,CD163-,CD68-</t>
   </si>
   <si>
-    <t>CD3-,CD8-,FOXP3-,CD56-,SOX10-,CD14-,CD163-,CD68-</t>
-  </si>
-  <si>
     <t>CD3-,CD4-,CD8-,FOXP3-,CD20-,SOX10-,S100B-,CD14-,CD163-,CD68-</t>
   </si>
   <si>
@@ -323,9 +311,6 @@
     <t>CD3-,CD4-,CD8-,FOXP3-,CD20-,CD14-,CD163-,CD68-</t>
   </si>
   <si>
-    <t>CD45,CD56</t>
-  </si>
-  <si>
     <t>Other leukocyte</t>
   </si>
   <si>
@@ -335,18 +320,9 @@
     <t>M2</t>
   </si>
   <si>
-    <t>CD68,CD14,CD4</t>
-  </si>
-  <si>
-    <t>CD3-,CD8-,FOXP3-,CD20-,CD56-,SOX10-, MHCII-</t>
-  </si>
-  <si>
     <t>CD163</t>
   </si>
   <si>
-    <t>CD163,CD14,CD4</t>
-  </si>
-  <si>
     <t>CD68</t>
   </si>
   <si>
@@ -366,6 +342,39 @@
   </si>
   <si>
     <t>Natural killer cell overall</t>
+  </si>
+  <si>
+    <t>CD3-,CD4-,CD8-,FOXP3-,CD20-,CD56-,CD14-,CD163-,CD68-,SOX10-,S100B-</t>
+  </si>
+  <si>
+    <t>CD45-,CD3-,CD4-,CD8-,FOXP3-,CD20-,CD56-,CD14-,CD163-,CD68-,SOX10-,PCK26-</t>
+  </si>
+  <si>
+    <t>CD45-,CD3-,CD4-,CD8-,FOXP3-,CD20-,CD56-,CD14-,CD163-,CD68-,SOX10-,S100B-</t>
+  </si>
+  <si>
+    <t>Adipocyte or Langerhans cell</t>
+  </si>
+  <si>
+    <t>CD3-,CD4-,CD8-,FOXP3-,CD56-,SOX10-,CD14-,CD163-,CD68-</t>
+  </si>
+  <si>
+    <t>CD45,S100B,PCK26</t>
+  </si>
+  <si>
+    <t>CD45,PCK26</t>
+  </si>
+  <si>
+    <t>CD45,S100B,PCK26,CD56</t>
+  </si>
+  <si>
+    <t>CD3-,CD4-,CD8-,FOXP3-,CD56-,SOX10-</t>
+  </si>
+  <si>
+    <t>CD3-,CD8-,FOXP3-,CD20-,CD56-,SOX10-,MHCII-</t>
+  </si>
+  <si>
+    <t>CD45,CD14,CD4,S100B,PCK26</t>
   </si>
 </sst>
 </file>
@@ -808,13 +817,13 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -822,48 +831,51 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -871,10 +883,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -883,13 +895,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,10 +909,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -909,39 +921,39 @@
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -949,10 +961,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -961,13 +973,13 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -975,10 +987,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -987,13 +999,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,10 +1013,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1013,13 +1025,13 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,10 +1039,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1039,39 +1051,39 @@
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1079,25 +1091,25 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,25 +1117,25 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1131,25 +1143,25 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1157,10 +1169,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1169,7 +1181,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -1183,7 +1195,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -1192,7 +1204,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,33 +1212,36 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1271,7 @@
     <col min="6" max="6" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
@@ -1281,7 +1296,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -1290,10 +1305,10 @@
         <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1310,65 +1325,65 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1377,7 +1392,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1386,24 +1401,24 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1412,7 +1427,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -1421,59 +1436,59 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1482,7 +1497,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -1491,24 +1506,24 @@
         <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1517,7 +1532,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -1526,24 +1541,24 @@
         <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1552,7 +1567,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -1561,24 +1576,24 @@
         <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1587,7 +1602,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1596,59 +1611,59 @@
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>112</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -1657,33 +1672,33 @@
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -1692,33 +1707,33 @@
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -1727,33 +1742,33 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1762,7 +1777,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -1771,13 +1786,13 @@
         <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
@@ -1788,7 +1803,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1807,7 +1822,8 @@
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1828,102 +1844,102 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
